--- a/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD6E0EEE-11A9-43CB-9702-DA004A8C65DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6798F5-1D2A-4349-9AC4-E006316FF071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06FA302E-9471-4523-9297-E98CD0E7561C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B356E13-DCC2-4982-AAA4-19DA2A08702D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,55 +98,55 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,55 +161,55 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
@@ -218,7 +218,7 @@
     <t>88,15%</t>
   </si>
   <si>
-    <t>85,45%</t>
+    <t>85,4%</t>
   </si>
   <si>
     <t>90,5%</t>
@@ -227,19 +227,19 @@
     <t>78,31%</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>11,85%</t>
@@ -248,25 +248,25 @@
     <t>9,5%</t>
   </si>
   <si>
-    <t>14,55%</t>
+    <t>14,6%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
@@ -275,55 +275,55 @@
     <t>86,73%</t>
   </si>
   <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104F6311-D615-47B1-8C3C-4F39BE64B843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745ED8EA-320B-49D1-8028-E637E18ADA1A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F1B8C7-580A-48D7-96B4-45318E400481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE645E2-0C6A-49A2-8E15-1C4034AE9FC1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946A57EC-2848-4905-9B7E-CFCFE283144C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB074D0-548B-45C0-9256-6E23AD3160A2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEEA001-59C6-4600-A8BB-CBC269FC4344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC7D31-1DDF-4E72-8F20-6967B2C3424F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE6798F5-1D2A-4349-9AC4-E006316FF071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40222FDF-E464-43F3-8291-7E16E8B69DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0B356E13-DCC2-4982-AAA4-19DA2A08702D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4C5A9D-5D45-4E52-972A-2949AA1F1BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -98,55 +98,55 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,112 +161,112 @@
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745ED8EA-320B-49D1-8028-E637E18ADA1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90464F-9851-44F6-9929-AC8B50057DC2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE645E2-0C6A-49A2-8E15-1C4034AE9FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E62EC70-5E1D-476C-8C17-FD3BD18BA68C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB074D0-548B-45C0-9256-6E23AD3160A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C6F996-026F-4125-87C5-848F0802489A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71AC7D31-1DDF-4E72-8F20-6967B2C3424F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD6A59-4A2F-48C7-83B8-62AEE00F608C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40222FDF-E464-43F3-8291-7E16E8B69DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{333EBE28-EBAB-412B-956A-AF1C0A656533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FF4C5A9D-5D45-4E52-972A-2949AA1F1BB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B93D0A4-F722-4BA2-AA65-F10CF009B0CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
   <si>
-    <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -98,55 +98,55 @@
     <t>92,06%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>88,89%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>13,46%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
   </si>
   <si>
     <t>11,11%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,175 +155,175 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>74,1%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>78,81%</t>
   </si>
   <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>21,19%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>78,31%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>82,56%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
   </si>
   <si>
     <t>17,44%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E90464F-9851-44F6-9929-AC8B50057DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF11D54-285F-4679-A461-9A4A93A22115}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,7 +1864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E62EC70-5E1D-476C-8C17-FD3BD18BA68C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD8D855-6605-4965-8F9E-8036ED633E37}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C6F996-026F-4125-87C5-848F0802489A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2F0E4B-AD7E-4164-97BF-7FCB70C52045}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4122,7 +4122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAD6A59-4A2F-48C7-83B8-62AEE00F608C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A42B96F-D3AA-4D6F-899E-76372FFAB7C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{333EBE28-EBAB-412B-956A-AF1C0A656533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B649D93-671F-4A23-93F2-AB4CA2583D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9B93D0A4-F722-4BA2-AA65-F10CF009B0CF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DABBBE62-04C7-4548-9FC5-28A12F5838EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="238">
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,160 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -122,42 +263,147 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
     <t>85,07%</t>
   </si>
   <si>
@@ -185,36 +431,144 @@
     <t>81,03%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
     <t>88,15%</t>
   </si>
   <si>
@@ -242,88 +596,163 @@
     <t>84,55%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
 </sst>
 </file>
@@ -735,8 +1164,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF11D54-285F-4679-A461-9A4A93A22115}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CBA4CA-5F65-40E9-9A54-14E6CDF5ABCF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1538,10 +1967,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>480</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>462565</v>
+        <v>10232</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>18</v>
@@ -1553,10 +1982,10 @@
         <v>20</v>
       </c>
       <c r="H19" s="7">
-        <v>578</v>
+        <v>25</v>
       </c>
       <c r="I19" s="7">
-        <v>585747</v>
+        <v>24209</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>21</v>
@@ -1568,10 +1997,10 @@
         <v>23</v>
       </c>
       <c r="M19" s="7">
-        <v>1058</v>
+        <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>1048312</v>
+        <v>34441</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>24</v>
@@ -1589,10 +2018,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7">
-        <v>39901</v>
+        <v>282351</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>27</v>
@@ -1604,10 +2033,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="7">
-        <v>83</v>
+        <v>346</v>
       </c>
       <c r="I20" s="7">
-        <v>91095</v>
+        <v>318725</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>30</v>
@@ -1619,10 +2048,10 @@
         <v>32</v>
       </c>
       <c r="M20" s="7">
-        <v>126</v>
+        <v>638</v>
       </c>
       <c r="N20" s="7">
-        <v>130996</v>
+        <v>601076</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>33</v>
@@ -1640,10 +2069,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -1655,10 +2084,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -1670,10 +2099,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -1687,55 +2116,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>480</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7">
-        <v>462565</v>
+        <v>29668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H22" s="7">
-        <v>578</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>585747</v>
+        <v>66886</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M22" s="7">
-        <v>1058</v>
+        <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>1048312</v>
+        <v>96554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,49 +2173,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D23" s="7">
-        <v>39901</v>
+        <v>180215</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="I23" s="7">
-        <v>91095</v>
+        <v>267022</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
-        <v>126</v>
+        <v>420</v>
       </c>
       <c r="N23" s="7">
-        <v>130996</v>
+        <v>447237</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1795,63 +2224,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>39901</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="7">
+        <v>83</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91095</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="7">
+        <v>126</v>
+      </c>
+      <c r="N25" s="7">
+        <v>130996</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>480</v>
+      </c>
+      <c r="D26" s="7">
+        <v>462565</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="7">
+        <v>578</v>
+      </c>
+      <c r="I26" s="7">
+        <v>585747</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1058</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1048312</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>523</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>502466</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>661</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>676842</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1184</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1179308</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1864,8 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD8D855-6605-4965-8F9E-8036ED633E37}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAB8E7A-AD97-4F25-9A54-90B04089323F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1881,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2667,49 +3252,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>432</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>476102</v>
+        <v>24571</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="7">
         <v>40</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="7">
-        <v>518</v>
-      </c>
       <c r="I19" s="7">
-        <v>550525</v>
+        <v>41573</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
-        <v>950</v>
+        <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>1026627</v>
+        <v>66144</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,49 +3303,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>83535</v>
+        <v>285215</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="I20" s="7">
-        <v>192450</v>
+        <v>312423</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>248</v>
+        <v>563</v>
       </c>
       <c r="N20" s="7">
-        <v>275985</v>
+        <v>597638</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,10 +3354,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -2784,10 +3369,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -2799,10 +3384,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -2816,55 +3401,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>432</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>476102</v>
+        <v>58965</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H22" s="7">
-        <v>518</v>
+        <v>136</v>
       </c>
       <c r="I22" s="7">
-        <v>550525</v>
+        <v>150877</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
-        <v>950</v>
+        <v>185</v>
       </c>
       <c r="N22" s="7">
-        <v>1026627</v>
+        <v>209841</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,49 +3458,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="D23" s="7">
-        <v>83535</v>
+        <v>190886</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="H23" s="7">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="I23" s="7">
-        <v>192450</v>
+        <v>238102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M23" s="7">
-        <v>248</v>
+        <v>387</v>
       </c>
       <c r="N23" s="7">
-        <v>275985</v>
+        <v>428989</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,63 +3509,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>72</v>
+      </c>
+      <c r="D25" s="7">
+        <v>83535</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="7">
+        <v>176</v>
+      </c>
+      <c r="I25" s="7">
+        <v>192450</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M25" s="7">
+        <v>248</v>
+      </c>
+      <c r="N25" s="7">
+        <v>275985</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>432</v>
+      </c>
+      <c r="D26" s="7">
+        <v>476102</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="7">
+        <v>518</v>
+      </c>
+      <c r="I26" s="7">
+        <v>550525</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M26" s="7">
+        <v>950</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1026627</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>504</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>559637</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>694</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>742975</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1198</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1302612</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2993,8 +3734,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2F0E4B-AD7E-4164-97BF-7FCB70C52045}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7304802-9321-483B-9706-FAF019152790}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3010,7 +3751,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3796,49 +4537,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>550</v>
+        <v>19</v>
       </c>
       <c r="D19" s="7">
-        <v>521230</v>
+        <v>19220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
-        <v>522</v>
+        <v>32</v>
       </c>
       <c r="I19" s="7">
-        <v>609182</v>
+        <v>34060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
-        <v>1072</v>
+        <v>51</v>
       </c>
       <c r="N19" s="7">
-        <v>1130412</v>
+        <v>53280</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,49 +4588,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="D20" s="7">
-        <v>70098</v>
+        <v>315110</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="I20" s="7">
-        <v>168749</v>
+        <v>343702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
-        <v>210</v>
+        <v>628</v>
       </c>
       <c r="N20" s="7">
-        <v>238847</v>
+        <v>658812</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,10 +4639,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -3913,10 +4654,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -3928,10 +4669,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -3945,55 +4686,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>550</v>
+        <v>58</v>
       </c>
       <c r="D22" s="7">
-        <v>521230</v>
+        <v>50878</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>60</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>522</v>
+        <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>609182</v>
+        <v>134689</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>1072</v>
+        <v>159</v>
       </c>
       <c r="N22" s="7">
-        <v>1130412</v>
+        <v>185567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,49 +4743,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="D23" s="7">
-        <v>70098</v>
+        <v>206120</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>69</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="I23" s="7">
-        <v>168749</v>
+        <v>265480</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
-        <v>210</v>
+        <v>444</v>
       </c>
       <c r="N23" s="7">
-        <v>238847</v>
+        <v>471600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,63 +4794,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>77</v>
+      </c>
+      <c r="D25" s="7">
+        <v>70098</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="7">
+        <v>133</v>
+      </c>
+      <c r="I25" s="7">
+        <v>168749</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" s="7">
+        <v>210</v>
+      </c>
+      <c r="N25" s="7">
+        <v>238847</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>550</v>
+      </c>
+      <c r="D26" s="7">
+        <v>521230</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="7">
+        <v>522</v>
+      </c>
+      <c r="I26" s="7">
+        <v>609182</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1072</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1130412</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>627</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>591328</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>655</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>777931</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>1282</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>1369259</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4122,8 +5019,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A42B96F-D3AA-4D6F-899E-76372FFAB7C2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24161AFB-F414-490D-B145-6C7CE520C011}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4139,7 +5036,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4925,49 +5822,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>884</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7">
-        <v>602653</v>
+        <v>24062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="H19" s="7">
-        <v>1310</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>808585</v>
+        <v>31494</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>189</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
-        <v>2194</v>
+        <v>104</v>
       </c>
       <c r="N19" s="7">
-        <v>1411238</v>
+        <v>55556</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,49 +5873,49 @@
         <v>12</v>
       </c>
       <c r="C20" s="7">
-        <v>140</v>
+        <v>531</v>
       </c>
       <c r="D20" s="7">
-        <v>92247</v>
+        <v>344103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
-        <v>386</v>
+        <v>757</v>
       </c>
       <c r="I20" s="7">
-        <v>210909</v>
+        <v>574391</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
-        <v>526</v>
+        <v>1288</v>
       </c>
       <c r="N20" s="7">
-        <v>303156</v>
+        <v>918494</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>94</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1024</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>694900</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>36</v>
@@ -5042,10 +5939,10 @@
         <v>36</v>
       </c>
       <c r="H21" s="7">
-        <v>1696</v>
+        <v>822</v>
       </c>
       <c r="I21" s="7">
-        <v>1019494</v>
+        <v>605885</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>36</v>
@@ -5057,10 +5954,10 @@
         <v>36</v>
       </c>
       <c r="M21" s="7">
-        <v>2720</v>
+        <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1714394</v>
+        <v>974050</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>36</v>
@@ -5074,55 +5971,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>884</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>602653</v>
+        <v>61049</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>78</v>
+        <v>203</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
-        <v>1310</v>
+        <v>321</v>
       </c>
       <c r="I22" s="7">
-        <v>808585</v>
+        <v>156555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="M22" s="7">
-        <v>2194</v>
+        <v>422</v>
       </c>
       <c r="N22" s="7">
-        <v>1411238</v>
+        <v>217603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>85</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,49 +6028,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>140</v>
+        <v>353</v>
       </c>
       <c r="D23" s="7">
-        <v>92247</v>
+        <v>219106</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="H23" s="7">
-        <v>386</v>
+        <v>553</v>
       </c>
       <c r="I23" s="7">
-        <v>210909</v>
+        <v>265370</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
-        <v>526</v>
+        <v>906</v>
       </c>
       <c r="N23" s="7">
-        <v>303156</v>
+        <v>484476</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,63 +6079,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>454</v>
+      </c>
+      <c r="D24" s="7">
+        <v>280155</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="7">
+        <v>874</v>
+      </c>
+      <c r="I24" s="7">
+        <v>421925</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1328</v>
+      </c>
+      <c r="N24" s="7">
+        <v>702079</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>140</v>
+      </c>
+      <c r="D25" s="7">
+        <v>85110</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="7">
+        <v>386</v>
+      </c>
+      <c r="I25" s="7">
+        <v>188049</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="7">
+        <v>526</v>
+      </c>
+      <c r="N25" s="7">
+        <v>273160</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7">
+        <v>884</v>
+      </c>
+      <c r="D26" s="7">
+        <v>563210</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1310</v>
+      </c>
+      <c r="I26" s="7">
+        <v>839761</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2194</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1402970</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1024</v>
       </c>
-      <c r="D24" s="7">
-        <v>694900</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>648320</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="7">
         <v>1696</v>
       </c>
-      <c r="I24" s="7">
-        <v>1019494</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1027810</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="7">
         <v>2720</v>
       </c>
-      <c r="N24" s="7">
-        <v>1714394</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>37</v>
+      <c r="N27" s="7">
+        <v>1676130</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
